--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2439618515934251, 0.07767210641746279, 0.10541731818472293, 0.07249082794783465, 0.07758858781804062, 0.21845036444316482, 0.37342806382681165, 0.22623153172211838, 0.0664835849128474, 0.0625261995828655, 0.06570071365984607, 0.08053131353649942, 0.219499247100956, 0.38125312177230686, 0.21914979758377154, 0.040764369839423185, 0.06534568906845278, 0.06061500446224576, 0.060532836735170174]</t>
+    <t>[1.0, 0.22552798732738358, 0.056398891485732607, 0.08560144702398881, 0.046777563525830075, 0.05498943797636096, 0.200594025492806, 0.36279221525143707, 0.21169202380457786, 0.04356483841501016, 0.0377714186123273, 0.04325980061669369, 0.06308859578436626, 0.20272374636548202, 0.3660825975623179, 0.20623095146838655, 0.019408755245307822, 0.04365438549181666, 0.037004998520316995, 0.03738080180442202]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.24541646884037246, 0.08829191456504808, 0.1210605209999542, 0.0868992712934351, 0.09203651403153736, 0.22179340525018662, 0.36539601300874547, 0.22563954652584953, 0.07809574808407783, 0.07587810733103326, 0.08107092555162741, 0.09282148435820935, 0.21975467270283885, 0.37560427628348814, 0.22116279299443528, 0.05275507752720097, 0.07663464894538102, 0.0725691877888745, 0.07094693567639936]</t>
+    <t>[1.0, 0.2259759267733879, 0.06677700088527702, 0.10164349285820642, 0.06122543810823906, 0.06935388684336177, 0.2032340672974424, 0.35332431635126543, 0.20987094283380378, 0.055226905722150325, 0.05120563627544868, 0.059493819152457744, 0.07571793970704686, 0.2020011977673216, 0.35928795187770274, 0.20778471558690997, 0.031630825573668545, 0.05512319100171853, 0.04906806307160904, 0.04777514371612177]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.731</v>
+        <v>2.055</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0002598841893973378</v>
+        <v>-0.0002692854079815117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01158946841202376</v>
+        <v>-0.008157298951845382</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02290888718613199</v>
+        <v>0.02787177565366872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.043870566272558</v>
+        <v>1.068016194331984</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.008390531073667475</v>
+        <v>0.01055150928231232</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1643207410188872</v>
+        <v>0.1823669624468967</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0199685565744809</v>
+        <v>0.02407186804626683</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.003387225900452845</v>
+        <v>0.003331126887409466</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1286387818387741</v>
+        <v>-0.1216428470706532</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02587406120106124</v>
+        <v>0.03179532681867699</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22552798732738358, 0.056398891485732607, 0.08560144702398881, 0.046777563525830075, 0.05498943797636096, 0.200594025492806, 0.36279221525143707, 0.21169202380457786, 0.04356483841501016, 0.0377714186123273, 0.04325980061669369, 0.06308859578436626, 0.20272374636548202, 0.3660825975623179, 0.20623095146838655, 0.019408755245307822, 0.04365438549181666, 0.037004998520316995, 0.03738080180442202]</t>
+    <t>[1.0, 0.2250619841574918, 0.05663358377404991, 0.08601009109933162, 0.04700098638789774, 0.055161362408366214, 0.20023958932650116, 0.3616852570962582, 0.21141811756105128, 0.04407705268496192, 0.03818347873613333, 0.04385984419680644, 0.06355684765771173, 0.20225998594406605, 0.36498165762185153, 0.205863827717201, 0.019719607061920656, 0.04427262455289715, 0.03756950390983698, 0.037981247201255335]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2259759267733879, 0.06677700088527702, 0.10164349285820642, 0.06122543810823906, 0.06935388684336177, 0.2032340672974424, 0.35332431635126543, 0.20987094283380378, 0.055226905722150325, 0.05120563627544868, 0.059493819152457744, 0.07571793970704686, 0.2020011977673216, 0.35928795187770274, 0.20778471558690997, 0.031630825573668545, 0.05512319100171853, 0.04906806307160904, 0.04777514371612177]</t>
+    <t>[1.0, 0.22484813722671818, 0.05817276929431664, 0.08740528076373216, 0.04835190583055679, 0.056385165802227556, 0.20032346151317582, 0.3602105209475373, 0.2110319963757661, 0.045204294879432255, 0.038924525562073646, 0.0446296725009264, 0.06450753686473056, 0.20188637645734123, 0.36354280811727263, 0.20599681409908385, 0.020768151360846195, 0.04526364784172385, 0.0386759456051214, 0.039094157830233706]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0002692854079815117</v>
+        <v>-0.0003262946206169515</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.008157298951845382</v>
+        <v>-0.002694509524860991</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02787177565366872</v>
+        <v>0.02787027567024508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01055150928231232</v>
+        <v>0.003190840108231945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1823669624468967</v>
+        <v>0.002846808004166386</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.02407186804626683</v>
+        <v>0.02416350844902828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.003331126887409466</v>
+        <v>-0.003983050600543842</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1216428470706532</v>
+        <v>0.0032262226905928</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.03179532681867699</v>
+        <v>0.03184268139509805</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25711835060492205, 0.08820446434622549, 0.06931980105882898, 0.06020214474231054, 0.09828171935113976, 0.24576736501219734, 0.3810413434651034, 0.24837795549306307, 0.09465939577183442, 0.06709246749719164, 0.07813132695916673, 0.0973448216844887, 0.24972786958895102, 0.3977243718913464, 0.2386193355936942, 0.055808999113693566, 0.06620571430832081, 0.06953523452391432, 0.0828344469216216]</t>
+    <t>[1.0, 0.2576584376144352, 0.08811695152619492, 0.0690427323863853, 0.060193913843876116, 0.0981746620280375, 0.2461456960629693, 0.3825555131682569, 0.2487411331636779, 0.09383004411509807, 0.06658773806731169, 0.07734839560176601, 0.09685323362464907, 0.2502705962106188, 0.3993908164000267, 0.23925415163710584, 0.05553930245336261, 0.06530015666677885, 0.06877967134932234, 0.08204819366810377]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2571210459115968, 0.08896326868941598, 0.06996574405239243, 0.06086950230591613, 0.0989091736263456, 0.2459298962322045, 0.3802955089655189, 0.2481975567632013, 0.09504607389547855, 0.06748322645682862, 0.07834344058744788, 0.09773326839142545, 0.24953024282101158, 0.39697009036227743, 0.23879043462256103, 0.05630131782144117, 0.06686635774937848, 0.06996321106962552, 0.08333548020935908]</t>
+    <t>[0.9999999999999999, 0.25905991178147053, 0.09812509907699662, 0.08324290732275103, 0.07244824726966428, 0.11198874356540497, 0.2496101800240498, 0.37729446427876384, 0.24963275799572635, 0.10438087512281577, 0.07905535142367118, 0.08996095564053531, 0.10774471430780701, 0.25148386728802724, 0.39424019419621953, 0.24147224985022683, 0.06616872539595632, 0.07562909679191669, 0.0780327733197378, 0.09115362737889963]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.001034079262205518</v>
+        <v>-0.0009455211689375831</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.004713262630588451</v>
+        <v>-0.01803213825069377</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02112979241264405</v>
+        <v>0.02113417220723546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.001973218874411448</v>
+        <v>0.007334889856758483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.0005955131530161434</v>
+        <v>0.1375318038842612</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01969428363534874</v>
+        <v>0.01965054992930092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.002592019218454958</v>
+        <v>0.0006037316301283086</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.002862704688893813</v>
+        <v>-0.1050824222689125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02265409260670502</v>
+        <v>0.02262789490044169</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2576584376144352, 0.08811695152619492, 0.0690427323863853, 0.060193913843876116, 0.0981746620280375, 0.2461456960629693, 0.3825555131682569, 0.2487411331636779, 0.09383004411509807, 0.06658773806731169, 0.07734839560176601, 0.09685323362464907, 0.2502705962106188, 0.3993908164000267, 0.23925415163710584, 0.05553930245336261, 0.06530015666677885, 0.06877967134932234, 0.08204819366810377]</t>
+    <t>[0.9999999999999999, 0.257658437614435, 0.08811695152619492, 0.06904273238638527, 0.060193913843876144, 0.09817466202803753, 0.24614569606296935, 0.38255551316825676, 0.24874113316367785, 0.09383004411509809, 0.06658773806731169, 0.077348395601766, 0.09685323362464902, 0.25027059621061887, 0.39939081640002677, 0.23925415163710578, 0.05553930245336261, 0.06530015666677885, 0.06877967134932234, 0.08204819366810376]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.25905991178147053, 0.09812509907699662, 0.08324290732275103, 0.07244824726966428, 0.11198874356540497, 0.2496101800240498, 0.37729446427876384, 0.24963275799572635, 0.10438087512281577, 0.07905535142367118, 0.08996095564053531, 0.10774471430780701, 0.25148386728802724, 0.39424019419621953, 0.24147224985022683, 0.06616872539595632, 0.07562909679191669, 0.0780327733197378, 0.09115362737889963]</t>
+    <t>[0.9999999999999999, 0.2590599117814706, 0.0981250990769966, 0.08324290732275104, 0.07244824726966431, 0.11198874356540502, 0.2496101800240499, 0.3772944642787639, 0.24963275799572646, 0.10438087512281576, 0.07905535142367114, 0.08996095564053534, 0.10774471430780706, 0.2514838672880272, 0.3942401941962198, 0.24147224985022675, 0.06616872539595632, 0.0756290967919167, 0.07803277331973778, 0.09115362737889955]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.0009455211689375831</v>
+        <v>-0.0009455211689375858</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01803213825069377</v>
+        <v>-0.0180321382506938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.054799183117767</v>
+        <v>0.5133344376345867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.007334889856758483</v>
+        <v>0.007334889856758464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0006037316301283086</v>
+        <v>0.0006037316301283084</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02262789490044169</v>
+        <v>0.0226278949004417</v>
       </c>
     </row>
     <row r="10" spans="1:2">
